--- a/src/assets/matrials.xlsx
+++ b/src/assets/matrials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1426edc62419d1b/Work/Solifokus/Swemount/swemount/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="321" documentId="11_F25DC773A252ABDACC104823F91F5CF85BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95316617-017D-479C-BB09-F23DF6E198C5}"/>
+  <xr:revisionPtr revIDLastSave="394" documentId="11_F25DC773A252ABDACC104823F91F5CF85BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39149108-BBC0-4309-BDC6-4D5F212AB29B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t>ArtNr</t>
   </si>
@@ -264,13 +264,37 @@
   </si>
   <si>
     <t>Mont.anv. Solpaneler papptak</t>
+  </si>
+  <si>
+    <t>SKL1000</t>
+  </si>
+  <si>
+    <t>Ändklämma komplett solsystem svart</t>
+  </si>
+  <si>
+    <t>SKL2000</t>
+  </si>
+  <si>
+    <t>Mittklämma komplett solsystem svart</t>
+  </si>
+  <si>
+    <t>SS1025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stockskruv komplett solsystem </t>
+  </si>
+  <si>
+    <t>SPL5050</t>
+  </si>
+  <si>
+    <t>Plastlock utvändig 50x50 svart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +304,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -305,11 +336,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7F0715-6126-44B3-99AF-0501E3E4713F}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,7 +694,7 @@
     <col min="6" max="6" width="5.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -695,13 +728,18 @@
         <v>0.7</v>
       </c>
       <c r="E2" s="1">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -715,13 +753,18 @@
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>458</v>
+        <v>550</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -740,8 +783,13 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -755,13 +803,18 @@
         <v>0.4</v>
       </c>
       <c r="E5" s="1">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
@@ -775,13 +828,18 @@
         <v>0.46</v>
       </c>
       <c r="E6" s="1">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -795,13 +853,18 @@
         <v>0.4</v>
       </c>
       <c r="E7" s="1">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -815,13 +878,18 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -835,13 +903,18 @@
         <v>5.65</v>
       </c>
       <c r="E9" s="1">
-        <v>428</v>
+        <v>514</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -855,424 +928,449 @@
         <v>0.12</v>
       </c>
       <c r="E10" s="1">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E11" s="1">
+        <v>121</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.08</v>
       </c>
-      <c r="E11" s="1">
-        <v>51</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="E12" s="1">
+        <v>61</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E13" s="1">
+        <v>74</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E12" s="1">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>170</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E14" s="1">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>204</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
         <v>1.01</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E16" s="1">
         <v>246</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D17" s="1">
         <v>1.6</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E17" s="1">
         <v>360</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C25" s="1">
         <v>7340044700867</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D25" s="1">
         <v>0.13</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E25" s="1">
         <v>30</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C26" s="1">
         <v>7340044700874</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D26" s="1">
         <v>1.3</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E26" s="1">
         <v>261</v>
       </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1">
         <v>0.05</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E27" s="1">
         <v>15</v>
       </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E28" s="1">
+        <v>18</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="1">
         <v>0.06</v>
       </c>
-      <c r="E26" s="1">
-        <v>31</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="E29" s="1">
+        <v>31</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C30" s="1">
         <v>7340044703042</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D30" s="1">
         <v>0.61</v>
       </c>
-      <c r="E27" s="1">
-        <v>412</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="E30" s="1">
+        <v>494</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C31" s="1">
         <v>7340044703059</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D31" s="1">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>68</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E29" s="1">
-        <v>78</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="1">
-        <v>7340044703677</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>284</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="1">
-        <v>7340044705534</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.05</v>
       </c>
       <c r="E31" s="1">
         <v>68</v>
@@ -1280,84 +1378,213 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="1">
+        <v>160</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="E33" s="1">
+        <v>94</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1">
+        <v>7340044703677</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>341</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7340044705534</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E35" s="1">
+        <v>68</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C36" s="1">
         <v>7340044705541</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D36" s="1">
         <v>0.45</v>
       </c>
-      <c r="E32" s="1">
-        <v>412</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="E36" s="1">
+        <v>494</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C37" s="1">
         <v>7340044703882</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D37" s="1">
         <v>0.25</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E37" s="1">
         <v>66</v>
       </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C38" s="1">
         <v>7340044703905</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D38" s="1">
         <v>1.25</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E38" s="1">
         <v>269</v>
       </c>
-      <c r="F34" s="1">
-        <v>0</v>
-      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F34">
-    <sortCondition ref="A1:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F38">
+    <sortCondition ref="A1:A38"/>
   </sortState>
-  <conditionalFormatting sqref="A37:A1048576 A1:A19">
+  <mergeCells count="1">
+    <mergeCell ref="K40:L40"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A41:A1048576 A1:A21">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A1048576 A1:A11">
+  <conditionalFormatting sqref="A41:A1048576 A1:A13">
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A1048576 A1:A23">
+  <conditionalFormatting sqref="A41:A1048576 A1:A25">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A1048576 A1:A25">
+  <conditionalFormatting sqref="A41:A1048576 A1:A28">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36:A1048576 A1:A34">
+  <conditionalFormatting sqref="A40:A1048576 A1:A38">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
